--- a/KBCゲームジャムチーム６.xlsx
+++ b/KBCゲームジャムチーム６.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\KBCgameJamTeam6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>KBCゲームジャムチーム６ゲーム</t>
     <phoneticPr fontId="1"/>
@@ -308,13 +308,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名越</t>
-    <rPh sb="0" eb="2">
-      <t>ナゴシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>庭作成</t>
     <rPh sb="0" eb="1">
       <t>ニワ</t>
@@ -798,6 +791,23 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みんな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動　回転　終了</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1132,12 +1142,12 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="16.8984375" customWidth="1"/>
     <col min="4" max="4" width="57.3984375" bestFit="1" customWidth="1"/>
@@ -1148,7 +1158,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1164,10 +1174,10 @@
     </row>
     <row r="3" spans="1:7" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
         <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -1276,23 +1286,23 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
@@ -1300,201 +1310,204 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>39</v>
       </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="E34" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="E35" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="E36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="E37" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="E38" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="E39" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="E40" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="E41" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="E42" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>50</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C48" t="s">
         <v>51</v>
       </c>
-      <c r="E44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D46" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="D47" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C48" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" t="s">
-        <v>68</v>
-      </c>
-      <c r="E48" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D49" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" t="s">
         <v>69</v>
-      </c>
-      <c r="E49" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
         <v>53</v>
       </c>
-      <c r="D50" t="s">
-        <v>54</v>
-      </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" t="s">
         <v>71</v>
-      </c>
-      <c r="E52" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
